--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -1,81 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\guilan-univercity homeWork\Term 1402 - 1\financial\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7139FF79-747F-4ED6-A644-DF2FDFD5AEEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="save" sheetId="1" r:id="rId1"/>
-    <sheet name="save_log" sheetId="2" r:id="rId2"/>
-    <sheet name="cost" sheetId="3" r:id="rId3"/>
-    <sheet name="cost_log" sheetId="4" r:id="rId4"/>
+    <sheet name="save" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="save_log" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="cost" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="cost_log" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
-  <si>
-    <t>month_id</t>
-  </si>
-  <si>
-    <t>week_id</t>
-  </si>
-  <si>
-    <t>day_id</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>save_id</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>cost_id</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -98,29 +67,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -408,30 +445,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>month_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>week_id</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>day_id</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -440,53 +510,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>save_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>taxi</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>month_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>week_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>day_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -495,21 +597,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>cost_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="save" sheetId="1" state="visible" r:id="rId1"/>
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -498,10 +503,11 @@
       <c r="D2" t="n">
         <v>31</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="E2" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -515,7 +521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +540,11 @@
           <t>desc</t>
         </is>
       </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -541,8 +552,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>taxi</t>
-        </is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="save" sheetId="1" state="visible" r:id="rId1"/>
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,53 +461,63 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
           <t>month_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>week_id</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>day_id</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>id</t>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>date</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>31</v>
       </c>
-      <c r="E2" t="n">
-        <v>9000</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8000</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1402/06/31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -521,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +555,11 @@
           <t>amount</t>
         </is>
       </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -552,11 +567,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>texi</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6000</v>
+        <v>5000</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -565,11 +585,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>bazi</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -1,50 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\Programing\BootStrap Ex\python\financial\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A78EE04-14C3-40CE-8834-8AADC3A2ECA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="save" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="save_log" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="cost" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="cost_log" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="save" sheetId="1" r:id="rId1"/>
+    <sheet name="save_log" sheetId="2" r:id="rId2"/>
+    <sheet name="cost" sheetId="3" r:id="rId3"/>
+    <sheet name="cost_log" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>month_id</t>
+  </si>
+  <si>
+    <t>week_id</t>
+  </si>
+  <si>
+    <t>day_id</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>1402/06/31</t>
+  </si>
+  <si>
+    <t>save_id</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>texi</t>
+  </si>
+  <si>
+    <t>19:35</t>
+  </si>
+  <si>
+    <t>bazi</t>
+  </si>
+  <si>
+    <t>eer</t>
+  </si>
+  <si>
+    <t>19:55</t>
+  </si>
+  <si>
+    <t>cost_id</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,97 +128,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -445,79 +438,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>month_id</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>week_id</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>day_id</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>sum</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>31</v>
       </c>
-      <c r="F2" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1402/06/31</t>
-        </is>
+      <c r="F2">
+        <v>40000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -526,75 +502,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>save_id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>desc</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>texi</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
         <v>5000</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>bazi</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
         <v>3000</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19:35</t>
-        </is>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>32000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -603,44 +573,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>month_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>week_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>day_id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>sum</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -649,29 +605,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>cost_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>desc</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\Programing\BootStrap Ex\python\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A78EE04-14C3-40CE-8834-8AADC3A2ECA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E5A0CA-20AC-4A96-95BF-11F20BE56D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="save" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -61,19 +61,10 @@
     <t>time</t>
   </si>
   <si>
-    <t>texi</t>
-  </si>
-  <si>
-    <t>19:35</t>
-  </si>
-  <si>
-    <t>bazi</t>
-  </si>
-  <si>
-    <t>eer</t>
-  </si>
-  <si>
-    <t>19:55</t>
+    <t>taxi</t>
+  </si>
+  <si>
+    <t>20:11</t>
   </si>
   <si>
     <t>cost_id</t>
@@ -441,14 +432,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -490,7 +478,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>40000</v>
+        <v>3689</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -503,11 +491,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -533,38 +519,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>5000</v>
+        <v>3689</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>3000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>32000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>

--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\Programing\BootStrap Ex\python\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E5A0CA-20AC-4A96-95BF-11F20BE56D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140D8EA0-A84E-43EF-8DBC-BA952611B803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="save" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -46,9 +46,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>1402/06/31</t>
-  </si>
-  <si>
     <t>save_id</t>
   </si>
   <si>
@@ -59,12 +56,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>taxi</t>
-  </si>
-  <si>
-    <t>20:11</t>
   </si>
   <si>
     <t>cost_id</t>
@@ -74,13 +65,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -96,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,13 +115,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -430,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,29 +475,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>31</v>
-      </c>
-      <c r="F2">
-        <v>3689</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -491,38 +482,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>3689</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -532,55 +511,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\Programing\BootStrap Ex\python\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140D8EA0-A84E-43EF-8DBC-BA952611B803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40F4F43-1614-496F-B928-A55A74FF57A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="save" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,9 @@
     <t>date</t>
   </si>
   <si>
+    <t>1402/06/31</t>
+  </si>
+  <si>
     <t>save_id</t>
   </si>
   <si>
@@ -58,25 +61,38 @@
     <t>time</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>21:03</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>21:04</t>
+  </si>
+  <si>
     <t>cost_id</t>
+  </si>
+  <si>
+    <t>21:05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -92,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,31 +131,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -444,11 +442,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -475,6 +471,29 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>6000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -482,93 +501,182 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>3000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>3000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="A3:XFD3 A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -1,114 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\Programing\BootStrap Ex\python\financial\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40F4F43-1614-496F-B928-A55A74FF57A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="save" sheetId="1" r:id="rId1"/>
-    <sheet name="save_log" sheetId="2" r:id="rId2"/>
-    <sheet name="cost" sheetId="3" r:id="rId3"/>
-    <sheet name="cost_log" sheetId="4" r:id="rId4"/>
+    <sheet name="save" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="save_log" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="cost" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="cost_log" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>month_id</t>
-  </si>
-  <si>
-    <t>week_id</t>
-  </si>
-  <si>
-    <t>day_id</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>1402/06/31</t>
-  </si>
-  <si>
-    <t>save_id</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>21:03</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>21:04</t>
-  </si>
-  <si>
-    <t>cost_id</t>
-  </si>
-  <si>
-    <t>21:05</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,29 +67,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -441,57 +445,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>month_id</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>week_id</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>day_id</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>31</v>
       </c>
-      <c r="F2">
-        <v>6000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
+      <c r="F2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1402/06/31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -500,67 +526,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>save_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>3000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>taxi</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21:13</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -569,57 +585,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>31</v>
-      </c>
-      <c r="F2">
-        <v>3000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>month_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>week_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>day_id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -628,55 +641,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" activeCellId="1" sqref="A3:XFD3 A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>cost_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -1,44 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\Programing\BootStrap Ex\python\financial\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A1C0B8-E206-483B-A2A2-008A5EA21B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="save" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="save_log" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="cost" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="cost_log" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="save" sheetId="1" r:id="rId1"/>
+    <sheet name="save_log" sheetId="2" r:id="rId2"/>
+    <sheet name="cost" sheetId="3" r:id="rId3"/>
+    <sheet name="cost_log" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>month_id</t>
+  </si>
+  <si>
+    <t>week_id</t>
+  </si>
+  <si>
+    <t>day_id</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>save_id</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>cost_id</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,96 +116,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -445,194 +443,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>month_id</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>week_id</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>day_id</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>sum</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E2" t="n">
-        <v>31</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1402/06/31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>save_id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>desc</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>taxi</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21:13</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>month_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>week_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>day_id</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>sum</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -640,40 +480,95 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" activeCellId="1" sqref="A3:XFD3 A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cost_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>desc</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\Programing\BootStrap Ex\python\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A1C0B8-E206-483B-A2A2-008A5EA21B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7772819-5090-4958-9987-F73FA43936CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="save" sheetId="1" r:id="rId1"/>
@@ -65,18 +65,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -92,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,31 +110,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -446,75 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,12 +457,79 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A3:XFD3 A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\Programing\BootStrap Ex\python\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7772819-5090-4958-9987-F73FA43936CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D223A4-79DC-4F4B-BB2A-B0F0C6F95E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="save" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -65,13 +65,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -87,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,13 +115,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -423,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,25 +482,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -490,32 +514,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -526,25 +550,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\Programing\BootStrap Ex\python\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D223A4-79DC-4F4B-BB2A-B0F0C6F95E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E65412-54AC-40E7-811F-ED7F35957E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="save" sheetId="1" r:id="rId1"/>
     <sheet name="save_log" sheetId="2" r:id="rId2"/>
     <sheet name="cost" sheetId="3" r:id="rId3"/>
     <sheet name="cost_log" sheetId="4" r:id="rId4"/>
+    <sheet name="total" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -59,6 +60,15 @@
   </si>
   <si>
     <t>cost_id</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>cost</t>
   </si>
 </sst>
 </file>
@@ -446,6 +456,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
@@ -472,74 +552,6 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -559,20 +571,52 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\Programing\BootStrap Ex\python\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E65412-54AC-40E7-811F-ED7F35957E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100DFE4E-5758-4809-99BC-72A2BD090686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,18 +75,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -102,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,31 +120,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -463,25 +440,25 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -495,25 +472,25 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -565,7 +542,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,7 +571,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -603,22 +580,23 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\Programing\BootStrap Ex\python\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100DFE4E-5758-4809-99BC-72A2BD090686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675F7591-A529-427E-9A56-E5450EF028F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="save" sheetId="1" r:id="rId1"/>
@@ -75,13 +75,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -97,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,13 +125,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -433,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -471,9 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -510,25 +531,25 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -542,25 +563,25 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -570,34 +591,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEBD4B2-6DB1-41D8-9C04-946E032553B2}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\Programing\BootStrap Ex\python\financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675F7591-A529-427E-9A56-E5450EF028F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CD7DA1-878E-45F0-8CD8-ED2FAB29B997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,25 +463,25 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -494,24 +494,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -531,25 +533,25 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -569,19 +571,19 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -591,33 +593,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEBD4B2-6DB1-41D8-9C04-946E032553B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -1,108 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\Programing\BootStrap Ex\python\financial\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CD7DA1-878E-45F0-8CD8-ED2FAB29B997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="save" sheetId="1" r:id="rId1"/>
-    <sheet name="save_log" sheetId="2" r:id="rId2"/>
-    <sheet name="cost" sheetId="3" r:id="rId3"/>
-    <sheet name="cost_log" sheetId="4" r:id="rId4"/>
-    <sheet name="total" sheetId="5" r:id="rId5"/>
+    <sheet name="save" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="save_log" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="cost" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="cost_log" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="total" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>month_id</t>
-  </si>
-  <si>
-    <t>week_id</t>
-  </si>
-  <si>
-    <t>day_id</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>save_id</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>cost_id</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,32 +88,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -453,36 +469,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>month_id</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>week_id</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>day_id</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
+      <c r="E2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1402/07/13</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -491,30 +550,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>save_id</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>taxi</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20:42</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -523,36 +638,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>month_id</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>week_id</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>day_id</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="E2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1402/07/13</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -561,30 +719,65 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>cost_id</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>buy something</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20:43</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -593,30 +786,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>month_id</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>save</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1402</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/Financial-1402-1.xlsx
+++ b/Financial-1402-1.xlsx
@@ -1,56 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parham\Programing\BootStrap Ex\python\financial\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675F7591-A529-427E-9A56-E5450EF028F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="save" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="save_log" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="cost" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="cost_log" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="total" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="save" sheetId="1" r:id="rId1"/>
+    <sheet name="save_log" sheetId="2" r:id="rId2"/>
+    <sheet name="cost" sheetId="3" r:id="rId3"/>
+    <sheet name="cost_log" sheetId="4" r:id="rId4"/>
+    <sheet name="total" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>month_id</t>
+  </si>
+  <si>
+    <t>week_id</t>
+  </si>
+  <si>
+    <t>day_id</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>save_id</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>cost_id</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -88,100 +140,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -469,79 +453,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>month_id</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>week_id</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>day_id</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>sum</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
-        <v>13</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1402/07/13</t>
-        </is>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -550,86 +491,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>save_id</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>desc</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>taxi</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20:42</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -638,79 +521,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>month_id</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>week_id</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>day_id</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>sum</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
-        <v>13</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1402/07/13</t>
-        </is>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -719,65 +559,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>cost_id</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>desc</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>buy something</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20:43</t>
-        </is>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -786,64 +591,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEBD4B2-6DB1-41D8-9C04-946E032553B2}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>month_id</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>save</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1402</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4000</v>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>